--- a/RUDN/Importance/Varible_f_reg_in_Micronesia.xlsx
+++ b/RUDN/Importance/Varible_f_reg_in_Micronesia.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t>F-value</t>
   </si>
@@ -22,28 +22,73 @@
     <t>p-value</t>
   </si>
   <si>
+    <t>Survival to age 65, male (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, male (per 1,000 male adults)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Survival to age 65, female (% of cohort)</t>
+  </si>
+  <si>
+    <t>Mortality rate, adult, female (per 1,000 female adults)</t>
+  </si>
+  <si>
     <t>GDP per person employed (constant 2011 PPP $)</t>
   </si>
   <si>
     <t>Male population 70-74</t>
   </si>
   <si>
+    <t>Male population 55-59</t>
+  </si>
+  <si>
+    <t>GDP per capita (Current US$)</t>
+  </si>
+  <si>
     <t>Labor force, female</t>
   </si>
   <si>
+    <t>GDP (current US$)</t>
+  </si>
+  <si>
     <t>Urban population</t>
   </si>
   <si>
-    <t>Male population 55-59</t>
-  </si>
-  <si>
     <t>Labor force, total</t>
   </si>
   <si>
+    <t>People using basic sanitation services (% of population)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities (% of population with access)</t>
+  </si>
+  <si>
+    <t>Improved sanitation facilities, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services (% of population)</t>
+  </si>
+  <si>
+    <t>Rural population (% of total population)</t>
+  </si>
+  <si>
     <t>Urban population (% of total)</t>
   </si>
   <si>
-    <t>Rural population (% of total population)</t>
+    <t>Improved water source, rural (% of rural population with access)</t>
+  </si>
+  <si>
+    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
   </si>
   <si>
     <t>Unemployment, youth male (% of male labor force ages 15-24) (modeled ILO estimate)</t>
@@ -52,769 +97,817 @@
     <t>Unemployment, youth female (% of female labor force ages 15-24) (modeled ILO estimate)</t>
   </si>
   <si>
+    <t>Population ages 65 and above, male</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Improved water source (% of population with access)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, male (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, male</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Immunization, BCG (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Unemployment, total (% of total labor force)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, total (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000)</t>
+  </si>
+  <si>
+    <t>Mortality rate, under-5 (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force)</t>
+  </si>
+  <si>
+    <t>Mortality rate, infant (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Labor force, female (% of total labor force)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of government expenditure)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>People practicing open defecation, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>Mortality rate, neonatal (per 1,000 live births)</t>
+  </si>
+  <si>
+    <t>Female population 55-59</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (% gross)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among pregnant women (%)</t>
+  </si>
+  <si>
+    <t>Health expenditure, public (% of GDP)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
+  </si>
+  <si>
+    <t>Secondary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (% gross)</t>
+  </si>
+  <si>
+    <t>Secondary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>Number of maternal deaths</t>
+  </si>
+  <si>
+    <t>School enrollment, primary, female (% gross)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among children (% of children under 5)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Health expenditure, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
+  </si>
+  <si>
+    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, female</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (%)</t>
+  </si>
+  <si>
+    <t>Expected years of schooling, male</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>Prevalence of undernourishment (% of population)</t>
+  </si>
+  <si>
+    <t>Forest area (% of land area)</t>
+  </si>
+  <si>
+    <t>Forest area (sq. km)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (%, all forms)</t>
+  </si>
+  <si>
+    <t>Tuberculosis case detection rate (all forms)</t>
+  </si>
+  <si>
+    <t>Country_code</t>
+  </si>
+  <si>
+    <t>CO2 emissions (metric tons per capita)</t>
+  </si>
+  <si>
+    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Primary completion rate, female (% of relevant age group)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, male (number)</t>
+  </si>
+  <si>
+    <t>Start-up procedures to register a business, female (number)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Primary education, pupils (% female)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of GDP)</t>
+  </si>
+  <si>
+    <t>School enrollment, secondary, male (% gross)</t>
+  </si>
+  <si>
+    <t>Male population 45-49</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, male (% of male adults)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Prevalence of overweight, female (% of female adults)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, female (days)</t>
+  </si>
+  <si>
+    <t>Time required to start a business, male (days)</t>
+  </si>
+  <si>
+    <t>Number of neonatal deaths</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, urban  (% of urban population)</t>
+  </si>
+  <si>
+    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Number of under-five deaths</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Number of infant deaths</t>
+  </si>
+  <si>
+    <t>Primary education, teachers (% female)</t>
+  </si>
+  <si>
+    <t>People using basic sanitation services, rural (% of rural population)</t>
+  </si>
+  <si>
+    <t>People using basic drinking water services, urban (% of urban population)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>Net ODA received (% of GNI)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>External resources for health (% of total expenditure on health)</t>
+  </si>
+  <si>
+    <t>Immunization, Pol3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Health expenditure, private (% of total health expenditure)</t>
+  </si>
+  <si>
+    <t>Immunization, DPT (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kt)</t>
+  </si>
+  <si>
+    <t>Immunization, HepB3 (% of one-year-old children)</t>
+  </si>
+  <si>
+    <t>Immunization, measles (% of children ages 12-23 months)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
+  </si>
+  <si>
+    <t>Health expenditure per capita, PPP</t>
+  </si>
+  <si>
     <t>Female population 70-74</t>
   </si>
   <si>
-    <t>Ratio of female to male labor force participation rate (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, BCG (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Mortality rate, under-5 (per 1,000)</t>
-  </si>
-  <si>
-    <t>Unemployment, total (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, infant (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Labor force, female (% of total labor force)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, female (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Cost of business start-up procedures, male (% of GNI per capita)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Mortality rate, neonatal (per 1,000 live births)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among pregnant women (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among children (% of children under 5)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate for ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among women of reproductive age (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Country_code</t>
-  </si>
-  <si>
-    <t>PPP conversion factor, GDP (LCU per international $)</t>
-  </si>
-  <si>
-    <t>Prevalence of anemia among non-pregnant women (% of women ages 15-49)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, female (number)</t>
-  </si>
-  <si>
-    <t>Start-up procedures to register a business, male (number)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, male</t>
-  </si>
-  <si>
-    <t>Ratio of female to male youth unemployment rate (% ages 15-24) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Male population 45-49</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Number of neonatal deaths</t>
-  </si>
-  <si>
-    <t>Time required to start a business, male (days)</t>
-  </si>
-  <si>
-    <t>Time required to start a business, female (days)</t>
-  </si>
-  <si>
-    <t>Number of under-five deaths</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, female (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Number of infant deaths</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, total (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, Pol3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Immunization, DPT (% of children ages 12-23 months)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, ages 15-24, male (%) (modeled ILO estimate)</t>
-  </si>
-  <si>
-    <t>Immunization, HepB3 (% of one-year-old children)</t>
-  </si>
-  <si>
-    <t>Immunization, measles (% of children ages 12-23 months)</t>
-  </si>
-  <si>
     <t>Mobile cellular subscriptions (per 100 people)</t>
   </si>
   <si>
+    <t>Population ages 70-74, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, total</t>
+  </si>
+  <si>
     <t>Newborns protected against tetanus (%)</t>
   </si>
   <si>
-    <t>Population ages 70-74, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Female population 55-59</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, total</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male</t>
+    <t>Health expenditure per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Male population 50-54</t>
   </si>
   <si>
     <t>Population ages 00-14, male (% of total)</t>
   </si>
   <si>
+    <t>Population ages 55-59, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, total</t>
+  </si>
+  <si>
+    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
+  </si>
+  <si>
     <t>Male population 75-79</t>
   </si>
   <si>
-    <t>Male population 50-54</t>
+    <t>Population ages 15-64, female</t>
   </si>
   <si>
     <t>Population, male</t>
   </si>
   <si>
-    <t>Population ages 15-64, female</t>
+    <t>People practicing open defecation (% of population)</t>
   </si>
   <si>
     <t>Population, total</t>
   </si>
   <si>
-    <t>Population ages 55-59, male (% of male population)</t>
+    <t>Male population 80+</t>
+  </si>
+  <si>
+    <t>Female population 50-54</t>
+  </si>
+  <si>
+    <t>Population ages 0-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population ages 00-14 (% of total)</t>
+  </si>
+  <si>
+    <t>Population, female</t>
   </si>
   <si>
     <t>Female population 45-49</t>
   </si>
   <si>
-    <t>Population ages 00-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14 (% of total)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, total</t>
-  </si>
-  <si>
     <t>Age dependency ratio, young</t>
   </si>
   <si>
-    <t>Population, female</t>
-  </si>
-  <si>
-    <t>Male population 80+</t>
-  </si>
-  <si>
-    <t>Female population 50-54</t>
+    <t>Rural population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Fixed telephone subscriptions (per 100 people)</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, female</t>
+  </si>
+  <si>
+    <t>Population ages 65 and above, male (% of total)</t>
   </si>
   <si>
     <t>Population ages 15-64, male (% of total)</t>
   </si>
   <si>
+    <t>Improved water source, urban (% of urban population with access)</t>
+  </si>
+  <si>
+    <t>Death rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, male (% of male population)</t>
+  </si>
+  <si>
     <t>Population ages 00-14, female (% of total)</t>
   </si>
   <si>
-    <t>Rural population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, female</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above, male (% of total)</t>
+    <t>Male population 65-69</t>
+  </si>
+  <si>
+    <t>Rural population</t>
   </si>
   <si>
     <t>Population ages 75-79, male (% of male population)</t>
   </si>
   <si>
-    <t>Rural population</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, male (% of male population)</t>
+    <t>Population ages 55-59, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 15-64 (% of total)</t>
   </si>
   <si>
-    <t>Male population 65-69</t>
+    <t>Population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Urban population growth (annual %)</t>
+  </si>
+  <si>
+    <t>Female population 65-69</t>
+  </si>
+  <si>
+    <t>Population, female (% of total)</t>
+  </si>
+  <si>
+    <t>Population, male (% of total)</t>
   </si>
   <si>
     <t>Age dependency ratio (% of working-age population)</t>
   </si>
   <si>
-    <t>Population ages 55-59, female (% of female population)</t>
+    <t>Population ages 65 and above (% of total)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, male, interpolated</t>
   </si>
   <si>
     <t>Male population 60-64</t>
   </si>
   <si>
-    <t>Age population, age 15, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population, male (% of total)</t>
-  </si>
-  <si>
-    <t>Population, female (% of total)</t>
+    <t>Age dependency ratio, old</t>
+  </si>
+  <si>
+    <t>Female population 40-44</t>
+  </si>
+  <si>
+    <t>Male population 15-19</t>
   </si>
   <si>
     <t>Age population, age 16, male, interpolated</t>
   </si>
   <si>
-    <t>Male population 15-19</t>
-  </si>
-  <si>
-    <t>Female population 40-44</t>
-  </si>
-  <si>
-    <t>Population ages 65 and above (% of total)</t>
-  </si>
-  <si>
-    <t>Urban population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Female population 65-69</t>
+    <t>Female population 15-19</t>
+  </si>
+  <si>
+    <t>Age population, age 14, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 15-64, female (% of total)</t>
   </si>
   <si>
     <t>Population ages 70-74, female (% of female population)</t>
   </si>
   <si>
-    <t>Age dependency ratio, old</t>
-  </si>
-  <si>
-    <t>Population growth (annual %)</t>
-  </si>
-  <si>
-    <t>Population ages 15-64, female (% of total)</t>
-  </si>
-  <si>
-    <t>Female population 15-19</t>
+    <t>Male population 40-44</t>
   </si>
   <si>
     <t>Population ages 45-49, male (% of male population)</t>
   </si>
   <si>
+    <t>Population ages 65 and above, female (% of total)</t>
+  </si>
+  <si>
+    <t>Net ODA received per capita (current US$)</t>
+  </si>
+  <si>
+    <t>Population ages 50-54, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Internet users (per 100 people)</t>
+  </si>
+  <si>
     <t>GNI per capita, PPP (current international $)</t>
   </si>
   <si>
-    <t>Age population, age 14, male, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 40-44</t>
+    <t>Incidence of tuberculosis (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Population ages 65-69, male (% of male population)</t>
   </si>
   <si>
     <t>Female population 60-64</t>
   </si>
   <si>
+    <t>Female population 80+</t>
+  </si>
+  <si>
+    <t>Age population, age 19, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, female, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 17, male, interpolated</t>
   </si>
   <si>
-    <t>Population ages 65 and above, female (% of total)</t>
-  </si>
-  <si>
-    <t>Internet users (per 100 people)</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, male (% of male population)</t>
+    <t>Population ages 50-54, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 15-19, female (% of female population)</t>
   </si>
   <si>
-    <t>Female population 80+</t>
-  </si>
-  <si>
-    <t>Population ages 50-54, female (% of female population)</t>
+    <t>Age population, age 13, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 17, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 18, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 20, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 16, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 17, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 10-14</t>
-  </si>
-  <si>
-    <t>Age population, age 19, female, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 45-49, female (% of female population)</t>
   </si>
   <si>
-    <t>Age population, age 13, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 18, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, female, interpolated</t>
+    <t>Population ages 65-69, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Population ages 80 and older, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Female population 35-39</t>
+  </si>
+  <si>
+    <t>Population ages 15-19, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 15, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, male (% of male population)</t>
   </si>
   <si>
     <t>Female population 75-79</t>
   </si>
   <si>
-    <t>Age population, age 18, male, interpolated</t>
+    <t>Age population, age 12, male, interpolated</t>
   </si>
   <si>
     <t>GNI per capita, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>Population ages 60-64, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 15, female, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 15-19, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 80 and older, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 65-69, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Female population 35-39</t>
+    <t>Health expenditure, total (current US$)</t>
+  </si>
+  <si>
+    <t>Unemployment, female (% of female labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Unemployment, male (% of male labor force) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Labor force participation rate for ages 15-24, male (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Age population, age 19, male, interpolated</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, female (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, total (%) (national estimate)</t>
+  </si>
+  <si>
+    <t>Employment to population ratio, ages 15-24, male (%) (national estimate)</t>
   </si>
   <si>
     <t>Age population, age 21, female, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 12, male, interpolated</t>
-  </si>
-  <si>
-    <t>Maternal mortality ratio (modeled estimate, per 100,000 live births)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>People practicing open defecation, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>Number of maternal deaths</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (%)</t>
-  </si>
-  <si>
-    <t>Prevalence of undernourishment (% of population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, urban  (% of urban population)</t>
-  </si>
-  <si>
-    <t>People using basic sanitation services, rural (% of rural population)</t>
-  </si>
-  <si>
-    <t>People using basic drinking water services, urban (% of urban population)</t>
-  </si>
-  <si>
-    <t>Net ODA received (% of GNI)</t>
+    <t>Male population 35-39</t>
+  </si>
+  <si>
+    <t>Female population 10-14</t>
+  </si>
+  <si>
+    <t>Age population, age 14, female, interpolated</t>
+  </si>
+  <si>
+    <t>Adolescent fertility rate (births per 1,000 women ages 15-19)</t>
+  </si>
+  <si>
+    <t>Age population, age 11, male, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 30-34</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people)</t>
+  </si>
+  <si>
+    <t>Tuberculosis death rate (per 100,000 people), including HIV</t>
+  </si>
+  <si>
+    <t>Female population 20-24</t>
   </si>
   <si>
     <t>Population ages 00-04, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 19, male, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 10-14</t>
-  </si>
-  <si>
-    <t>Lifetime risk of maternal death (1 in: rate varies by country)</t>
-  </si>
-  <si>
-    <t>Male population 35-39</t>
-  </si>
-  <si>
-    <t>Age population, age 14, female, interpolated</t>
-  </si>
-  <si>
-    <t>Female population 20-24</t>
+    <t>Age population, age 20, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 13, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 60-64, female (% of female population)</t>
   </si>
   <si>
     <t>Age population, age 22, female, interpolated</t>
   </si>
   <si>
-    <t>Male population 30-34</t>
-  </si>
-  <si>
-    <t>Age population, age 11, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 20, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 60-64, female (% of female population)</t>
+    <t>Age population, age 10, male, interpolated</t>
+  </si>
+  <si>
+    <t>Trade (% of GDP)</t>
+  </si>
+  <si>
+    <t>Nurses and midwives (per 1,000 people)</t>
   </si>
   <si>
     <t>Proportion of seats held by women in national parliaments (%)</t>
   </si>
   <si>
-    <t>Age population, age 13, female, interpolated</t>
-  </si>
-  <si>
-    <t>Net ODA received per capita (current US$)</t>
-  </si>
-  <si>
-    <t>GDP (current US$)</t>
+    <t>Female population 30-34</t>
+  </si>
+  <si>
+    <t>Age population, age 12, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 21, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages10-14, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Male population 20-24</t>
+  </si>
+  <si>
+    <t>Age population, age 11, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 23, female, interpolated</t>
+  </si>
+  <si>
+    <t>Male population 25-29</t>
   </si>
   <si>
     <t>Population ages 05-09, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 23, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 21, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 12, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 20-24</t>
-  </si>
-  <si>
     <t>Population ages 75-79, female (% of female population)</t>
   </si>
   <si>
-    <t>GDP per capita (Current US$)</t>
-  </si>
-  <si>
-    <t>Female population 30-34</t>
-  </si>
-  <si>
-    <t>Age population, age 11, female, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, male, interpolated</t>
+    <t>Age population, age 10, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 22, male, interpolated</t>
   </si>
   <si>
+    <t>Population ages 20-24, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Age population, age 09, male, interpolated</t>
+  </si>
+  <si>
     <t>Age population, age 24, female, interpolated</t>
   </si>
   <si>
-    <t>Male population 25-29</t>
-  </si>
-  <si>
-    <t>Population ages10-14, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, female (% of female population)</t>
+    <t>Female population 25-29</t>
+  </si>
+  <si>
+    <t>Age population, age 23, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 09, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 20-24, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 25, female, interpolated</t>
   </si>
   <si>
     <t>Population ages 00-04, female (% of female population)</t>
   </si>
   <si>
-    <t>Age population, age 23, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 10, female, interpolated</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of government expenditure)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of private expenditure on health)</t>
-  </si>
-  <si>
-    <t>Health expenditure, public (% of GDP)</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (% of GDP)</t>
-  </si>
-  <si>
-    <t>Out-of-pocket health expenditure (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kg per PPP $ of GDP)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (metric tons per capita)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of GDP)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, male (% of male adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of overweight, female (% of female adults)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, male (% of male population ages 18+)</t>
-  </si>
-  <si>
-    <t>Prevalence of obesity, female (% of female population ages 18+)</t>
-  </si>
-  <si>
-    <t>External resources for health (% of total expenditure on health)</t>
-  </si>
-  <si>
-    <t>Health expenditure, private (% of total health expenditure)</t>
-  </si>
-  <si>
-    <t>CO2 emissions (kt)</t>
-  </si>
-  <si>
-    <t>Female population 25-29</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP (constant 2011 international $)</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita, PPP</t>
-  </si>
-  <si>
-    <t>Health expenditure per capita (current US$)</t>
-  </si>
-  <si>
-    <t>Age population, age 25, female, interpolated</t>
+    <t>Age population, age 25, male, interpolated</t>
   </si>
   <si>
     <t>Age population, age 24, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 25, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 20-24, male (% of male population)</t>
+    <t>Population ages 0-14, male</t>
+  </si>
+  <si>
+    <t>Population ages 00-14, total</t>
+  </si>
+  <si>
+    <t>Age population, age 08, male, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 0-14, female</t>
   </si>
   <si>
     <t>GNI, Atlas method (current US$)</t>
   </si>
   <si>
-    <t>Age population, age 09, male, interpolated</t>
-  </si>
-  <si>
-    <t>Age population, age 09, female, interpolated</t>
+    <t>Population ages 40-44, male (% of male population)</t>
+  </si>
+  <si>
+    <t>Age population, age 08, female, interpolated</t>
+  </si>
+  <si>
+    <t>Population ages 10-14, female (% of female population)</t>
+  </si>
+  <si>
+    <t>Male population 05-09</t>
+  </si>
+  <si>
+    <t>Proportion of women in ministerial level positions (%)</t>
+  </si>
+  <si>
+    <t>Population ages 40-44, female (% of female population)</t>
   </si>
   <si>
     <t>Population ages 05-09, female (% of female population)</t>
   </si>
   <si>
-    <t>Population ages 0-14, male</t>
-  </si>
-  <si>
-    <t>Population ages 00-14, total</t>
-  </si>
-  <si>
-    <t>Health expenditure, total (current US$)</t>
-  </si>
-  <si>
-    <t>Population ages 0-14, female</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, male (% of male population)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, male, interpolated</t>
-  </si>
-  <si>
-    <t>Population ages 10-14, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Population ages 40-44, female (% of female population)</t>
-  </si>
-  <si>
-    <t>Age population, age 08, female, interpolated</t>
-  </si>
-  <si>
-    <t>Male population 05-09</t>
+    <t>Female population 05-09</t>
   </si>
   <si>
     <t>Age population, age 07, male, interpolated</t>
   </si>
   <si>
-    <t>Female population 05-09</t>
-  </si>
-  <si>
     <t>Age population, age 07, female, interpolated</t>
   </si>
   <si>
-    <t>Employment to population ratio, 15+, total (%) (national estimate)</t>
+    <t>Age population, age 06, male, interpolated</t>
+  </si>
+  <si>
+    <t>Net official development assistance and official aid received (current US$)</t>
   </si>
   <si>
     <t>Net official development assistance received (current US$)</t>
   </si>
   <si>
-    <t>Net official development assistance and official aid received (current US$)</t>
+    <t>Age population, age 06, female, interpolated</t>
   </si>
   <si>
     <t>Population ages 25-29, female (% of female population)</t>
   </si>
   <si>
-    <t>Age population, age 06, male, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, male (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary, female (% gross)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>Primary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Share of women employed in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Share of women in wage employment in the nonagricultural sector (% of total nonagricultural employment)</t>
-  </si>
-  <si>
-    <t>Age population, age 06, female, interpolated</t>
+    <t>Age population, age 05, male, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 05, female, interpolated</t>
+  </si>
+  <si>
+    <t>Age population, age 04, male, interpolated</t>
   </si>
   <si>
     <t>Immunization, Hib3 (% of children ages 12-23 months)</t>
   </si>
   <si>
-    <t>Age population, age 05, male, interpolated</t>
-  </si>
-  <si>
-    <t>Primary completion rate, male (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, total (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary completion rate, female (% of relevant age group)</t>
-  </si>
-  <si>
-    <t>Primary education, teachers (% female)</t>
-  </si>
-  <si>
     <t>Population ages 25-29, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 05, female, interpolated</t>
-  </si>
-  <si>
     <t>Population ages 35-39, male (% of male population)</t>
   </si>
   <si>
-    <t>Age population, age 04, male, interpolated</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, female (% gross)</t>
-  </si>
-  <si>
-    <t>Secondary education, teachers (% female)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (% gross)</t>
-  </si>
-  <si>
-    <t>Secondary education, pupils (% female)</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, female</t>
-  </si>
-  <si>
-    <t>Expected years of schooling, male</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, primary and secondary (gross), gender parity index (GPI)</t>
-  </si>
-  <si>
-    <t>School enrollment, secondary, male (% gross)</t>
-  </si>
-  <si>
-    <t>Proportion of women in ministerial level positions (%)</t>
-  </si>
-  <si>
-    <t>Unemployment, female (% of female labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Ratio of female to male labor force participation rate (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Unemployment, male (% of male labor force) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, female (% of female population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, female (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Labor force participation rate, male (% of male population ages 15+) (national estimate)</t>
-  </si>
-  <si>
-    <t>Employment to population ratio, 15+, male (%) (national estimate)</t>
-  </si>
-  <si>
-    <t>Nurses and midwives (per 1,000 people)</t>
-  </si>
-  <si>
-    <t>Incidence of tuberculosis (per 100,000 people)</t>
+    <t>Age population, age 04, female, interpolated</t>
   </si>
   <si>
     <t>Age population, age 03, male, interpolated</t>
   </si>
   <si>
-    <t>Age population, age 04, female, interpolated</t>
+    <t>Male population 00-04</t>
   </si>
 </sst>
 </file>
@@ -1172,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C266"/>
+  <dimension ref="A1:C297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1191,7 +1284,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>5434.189435852951</v>
+        <v>72045.90652915371</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1202,7 +1295,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>4016.225269995223</v>
+        <v>46309.10871363476</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1213,7 +1306,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3323.050697377627</v>
+        <v>24474.84998902673</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1224,7 +1317,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2878.625238825743</v>
+        <v>15351.89856477561</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1235,7 +1328,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2677.068735739527</v>
+        <v>11612.46028351797</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1246,7 +1339,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2658.67715767013</v>
+        <v>9970.468558277131</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1257,7 +1350,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1869.649069108642</v>
+        <v>5591.630929284353</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1268,7 +1361,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1869.649069107752</v>
+        <v>5199.004492141344</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1279,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1655.123062964145</v>
+        <v>3846.852239378468</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1290,7 +1383,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1652.959514935444</v>
+        <v>3275.008769009811</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1301,7 +1394,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1589.685684768727</v>
+        <v>3170.938177736525</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1312,7 +1405,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1579.492639158797</v>
+        <v>2890.712518454256</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1323,7 +1416,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1578.941573818061</v>
+        <v>2691.860050032328</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1334,7 +1427,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1578.941573818061</v>
+        <v>2571.124342331583</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1345,7 +1438,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1574.645666923008</v>
+        <v>2119.232061595575</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1356,7 +1449,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1567.943916369705</v>
+        <v>1967.409117259836</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -1367,7 +1460,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1567.943916369705</v>
+        <v>1917.432873758031</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -1378,7 +1471,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1566.561212337021</v>
+        <v>1882.916799674604</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1389,7 +1482,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1562.346352032357</v>
+        <v>1861.041736740836</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1400,7 +1493,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1556.708580588762</v>
+        <v>1842.729227723172</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -1411,7 +1504,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1556.708580588762</v>
+        <v>1842.72922772127</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -1422,7 +1515,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1553.656673702959</v>
+        <v>1732.850146789798</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -1433,7 +1526,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1544.536828158281</v>
+        <v>1705.40429455366</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1444,7 +1537,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1541.435494758325</v>
+        <v>1661.311605703446</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -1455,7 +1548,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1541.435494758325</v>
+        <v>1659.739016798967</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1466,7 +1559,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>1540.14490948818</v>
+        <v>1631.569990660597</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1477,7 +1570,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1538.967080593055</v>
+        <v>1600.36560883318</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -1488,7 +1581,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1530.990210716551</v>
+        <v>1598.048583599723</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1499,7 +1592,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1526.621074411814</v>
+        <v>1589.655330490568</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1510,7 +1603,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1524.538863211476</v>
+        <v>1582.170254442132</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1521,7 +1614,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1523.34523564076</v>
+        <v>1578.272806273554</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1532,7 +1625,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1523.339500876875</v>
+        <v>1578.272806273554</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1543,7 +1636,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1523.145760175939</v>
+        <v>1573.514215335707</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1554,7 +1647,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1522.662650268398</v>
+        <v>1571.036020514043</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1565,7 +1658,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1521.793394981427</v>
+        <v>1564.533360407589</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1576,7 +1669,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1521.793394981427</v>
+        <v>1563.521752309699</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1587,7 +1680,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1521.436996409213</v>
+        <v>1559.309333665758</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1598,7 +1691,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1519.840067342422</v>
+        <v>1556.255970864775</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1609,7 +1702,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1511.784257433171</v>
+        <v>1555.64091157301</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1620,7 +1713,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1509.400004537056</v>
+        <v>1555.64091157301</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1631,7 +1724,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1508.559674819392</v>
+        <v>1551.877555647283</v>
       </c>
       <c r="C42">
         <v>0</v>
@@ -1642,7 +1735,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>1507.361139832422</v>
+        <v>1551.877555647283</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1653,7 +1746,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1507.361139832422</v>
+        <v>1543.10800880892</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1664,7 +1757,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>1504.793119365025</v>
+        <v>1539.09083717458</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1675,7 +1768,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>1501.831279687532</v>
+        <v>1538.611476575347</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1686,7 +1779,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>1495.764936497212</v>
+        <v>1537.387133947504</v>
       </c>
       <c r="C47">
         <v>0</v>
@@ -1697,7 +1790,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>1494.151518364091</v>
+        <v>1536.96840350361</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1708,7 +1801,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>1491.725431347181</v>
+        <v>1534.604362957171</v>
       </c>
       <c r="C49">
         <v>0</v>
@@ -1719,7 +1812,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1483.539122412492</v>
+        <v>1532.467799517811</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1730,7 +1823,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1475.258361343773</v>
+        <v>1531.428511166642</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1741,7 +1834,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1473.277685054573</v>
+        <v>1531.128129629279</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1752,7 +1845,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>1472.094621495449</v>
+        <v>1531.004667646299</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1763,7 +1856,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>1464.632973767665</v>
+        <v>1530.11317057353</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1774,7 +1867,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>1446.83305983723</v>
+        <v>1526.143556283345</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1785,7 +1878,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>1434.239576774958</v>
+        <v>1525.888244785993</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1796,7 +1889,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>1316.880610344292</v>
+        <v>1525.533646945001</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1807,7 +1900,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>1300.8852062352</v>
+        <v>1524.558697005555</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1818,7 +1911,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>1264.912808365071</v>
+        <v>1524.297087197911</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1829,7 +1922,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>1260.287323321352</v>
+        <v>1524.048366435576</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1840,7 +1933,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>1248.854744885486</v>
+        <v>1522.59568351111</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1851,7 +1944,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>1213.745510261615</v>
+        <v>1522.107304853895</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1862,7 +1955,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>1115.106419109487</v>
+        <v>1520.714382753971</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1873,7 +1966,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1078.280295589222</v>
+        <v>1520.221571570648</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1884,7 +1977,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>1076.941084145037</v>
+        <v>1520.091469551388</v>
       </c>
       <c r="C65">
         <v>0</v>
@@ -1895,7 +1988,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>1021.235562391899</v>
+        <v>1519.569769954791</v>
       </c>
       <c r="C66">
         <v>0</v>
@@ -1906,7 +1999,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>996.3838061874137</v>
+        <v>1519.193708496064</v>
       </c>
       <c r="C67">
         <v>0</v>
@@ -1917,7 +2010,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>939.4581292858752</v>
+        <v>1519.193708496064</v>
       </c>
       <c r="C68">
         <v>0</v>
@@ -1928,7 +2021,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>931.0505065294657</v>
+        <v>1519.06055793866</v>
       </c>
       <c r="C69">
         <v>0</v>
@@ -1939,7 +2032,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>871.4263314734835</v>
+        <v>1519.06055793866</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -1950,7 +2043,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>860.0102732620586</v>
+        <v>1518.91852118844</v>
       </c>
       <c r="C71">
         <v>0</v>
@@ -1961,7 +2054,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>860.0102732620586</v>
+        <v>1518.198935783734</v>
       </c>
       <c r="C72">
         <v>0</v>
@@ -1972,7 +2065,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>858.4439685621927</v>
+        <v>1518.1400253821</v>
       </c>
       <c r="C73">
         <v>0</v>
@@ -1983,7 +2076,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>840.5335075437349</v>
+        <v>1517.634855544362</v>
       </c>
       <c r="C74">
         <v>0</v>
@@ -1994,7 +2087,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>837.7402862466888</v>
+        <v>1517.357146287019</v>
       </c>
       <c r="C75">
         <v>0</v>
@@ -2005,7 +2098,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>799.5946830561817</v>
+        <v>1517.336993453173</v>
       </c>
       <c r="C76">
         <v>0</v>
@@ -2016,7 +2109,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>776.4337725943301</v>
+        <v>1517.307861813195</v>
       </c>
       <c r="C77">
         <v>0</v>
@@ -2027,7 +2120,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>756.0083605235983</v>
+        <v>1517.285492739652</v>
       </c>
       <c r="C78">
         <v>0</v>
@@ -2038,7 +2131,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>654.7790140155062</v>
+        <v>1517.229623715891</v>
       </c>
       <c r="C79">
         <v>0</v>
@@ -2049,7 +2142,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>653.3764469390043</v>
+        <v>1517.229623715628</v>
       </c>
       <c r="C80">
         <v>0</v>
@@ -2060,7 +2153,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>644.5287058375617</v>
+        <v>1517.229623715331</v>
       </c>
       <c r="C81">
         <v>0</v>
@@ -2071,7 +2164,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>637.5416872333907</v>
+        <v>1517.229623708826</v>
       </c>
       <c r="C82">
         <v>0</v>
@@ -2082,7 +2175,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>620.6207585129495</v>
+        <v>1517.229623708826</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -2093,7 +2186,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>594.3141879152236</v>
+        <v>1517.229623706584</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -2104,7 +2197,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>593.7473703069624</v>
+        <v>1517.110359422088</v>
       </c>
       <c r="C85">
         <v>0</v>
@@ -2115,7 +2208,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>584.7346997505157</v>
+        <v>1517.073282821686</v>
       </c>
       <c r="C86">
         <v>0</v>
@@ -2126,7 +2219,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>529.8827722006098</v>
+        <v>1517.031128017204</v>
       </c>
       <c r="C87">
         <v>0</v>
@@ -2137,7 +2230,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>508.1060653367194</v>
+        <v>1516.956790173899</v>
       </c>
       <c r="C88">
         <v>0</v>
@@ -2148,7 +2241,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>503.9879719776662</v>
+        <v>1515.574720372577</v>
       </c>
       <c r="C89">
         <v>0</v>
@@ -2159,7 +2252,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>493.2756048834121</v>
+        <v>1515.574720372577</v>
       </c>
       <c r="C90">
         <v>0</v>
@@ -2170,7 +2263,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>489.5644721490409</v>
+        <v>1515.458111744691</v>
       </c>
       <c r="C91">
         <v>0</v>
@@ -2181,7 +2274,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>486.3607242455423</v>
+        <v>1513.895464106762</v>
       </c>
       <c r="C92">
         <v>0</v>
@@ -2192,7 +2285,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>486.3607242363314</v>
+        <v>1511.435363168894</v>
       </c>
       <c r="C93">
         <v>0</v>
@@ -2203,7 +2296,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>474.7369773738514</v>
+        <v>1509.93242775282</v>
       </c>
       <c r="C94">
         <v>0</v>
@@ -2214,7 +2307,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>454.7670825811939</v>
+        <v>1509.868197646653</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -2225,7 +2318,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>454.6875993742254</v>
+        <v>1505.110879168227</v>
       </c>
       <c r="C96">
         <v>0</v>
@@ -2236,7 +2329,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>428.6509055360307</v>
+        <v>1501.051487442636</v>
       </c>
       <c r="C97">
         <v>0</v>
@@ -2247,7 +2340,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>420.9429191273432</v>
+        <v>1500.88920382434</v>
       </c>
       <c r="C98">
         <v>0</v>
@@ -2258,7 +2351,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>414.9731065166434</v>
+        <v>1500.059684458024</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -2269,7 +2362,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>414.590006073683</v>
+        <v>1500.059684458024</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -2280,7 +2373,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>409.0395651996992</v>
+        <v>1498.96509965042</v>
       </c>
       <c r="C101">
         <v>0</v>
@@ -2291,7 +2384,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>409.0096625338541</v>
+        <v>1497.377073090075</v>
       </c>
       <c r="C102">
         <v>0</v>
@@ -2302,7 +2395,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>403.4860572108456</v>
+        <v>1495.840113104567</v>
       </c>
       <c r="C103">
         <v>0</v>
@@ -2313,7 +2406,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>402.866893814369</v>
+        <v>1493.751211827508</v>
       </c>
       <c r="C104">
         <v>0</v>
@@ -2324,7 +2417,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>378.1168553616569</v>
+        <v>1491.107549039534</v>
       </c>
       <c r="C105">
         <v>0</v>
@@ -2335,7 +2428,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>353.7863111211071</v>
+        <v>1488.500697342063</v>
       </c>
       <c r="C106">
         <v>0</v>
@@ -2346,7 +2439,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>341.3947002083801</v>
+        <v>1487.153037862554</v>
       </c>
       <c r="C107">
         <v>0</v>
@@ -2357,7 +2450,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>330.1848502670859</v>
+        <v>1484.321772878817</v>
       </c>
       <c r="C108">
         <v>0</v>
@@ -2368,7 +2461,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>319.0810239019408</v>
+        <v>1481.406375851573</v>
       </c>
       <c r="C109">
         <v>0</v>
@@ -2379,7 +2472,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>315.934778213634</v>
+        <v>1478.347906618776</v>
       </c>
       <c r="C110">
         <v>0</v>
@@ -2390,7 +2483,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>315.670990993899</v>
+        <v>1477.822952558492</v>
       </c>
       <c r="C111">
         <v>0</v>
@@ -2401,7 +2494,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>312.7448317266961</v>
+        <v>1475.996319331538</v>
       </c>
       <c r="C112">
         <v>0</v>
@@ -2412,7 +2505,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>302.7194256586051</v>
+        <v>1472.230970938797</v>
       </c>
       <c r="C113">
         <v>0</v>
@@ -2423,7 +2516,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>271.5477257702359</v>
+        <v>1469.839001617911</v>
       </c>
       <c r="C114">
         <v>0</v>
@@ -2434,7 +2527,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>271.3338708709221</v>
+        <v>1468.74651131611</v>
       </c>
       <c r="C115">
         <v>0</v>
@@ -2445,7 +2538,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>263.3667106543199</v>
+        <v>1466.402062585822</v>
       </c>
       <c r="C116">
         <v>0</v>
@@ -2456,7 +2549,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>243.6467002867446</v>
+        <v>1457.492496141244</v>
       </c>
       <c r="C117">
         <v>0</v>
@@ -2467,7 +2560,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>243.6388072574732</v>
+        <v>1454.042915897188</v>
       </c>
       <c r="C118">
         <v>0</v>
@@ -2478,7 +2571,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>241.8157950925974</v>
+        <v>1453.731433146827</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -2489,7 +2582,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>237.5219366433876</v>
+        <v>1452.798072201383</v>
       </c>
       <c r="C120">
         <v>0</v>
@@ -2500,7 +2593,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>232.1579389383961</v>
+        <v>1442.681547098676</v>
       </c>
       <c r="C121">
         <v>0</v>
@@ -2511,7 +2604,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>231.4125339181631</v>
+        <v>1426.784452136849</v>
       </c>
       <c r="C122">
         <v>0</v>
@@ -2522,7 +2615,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>231.2003599981416</v>
+        <v>1413.33113346505</v>
       </c>
       <c r="C123">
         <v>0</v>
@@ -2533,7 +2626,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>229.2695981874345</v>
+        <v>1403.010284245593</v>
       </c>
       <c r="C124">
         <v>0</v>
@@ -2544,7 +2637,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>217.6403634749999</v>
+        <v>1403.010284245593</v>
       </c>
       <c r="C125">
         <v>0</v>
@@ -2555,7 +2648,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>215.9948130131253</v>
+        <v>1386.257910907721</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -2566,7 +2659,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>214.2093082738844</v>
+        <v>1353.765815785128</v>
       </c>
       <c r="C127">
         <v>0</v>
@@ -2577,7 +2670,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>213.6112065833219</v>
+        <v>1335.061068753483</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -2588,7 +2681,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>207.4566560336568</v>
+        <v>1314.66910032608</v>
       </c>
       <c r="C129">
         <v>0</v>
@@ -2599,7 +2692,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>205.8447128999118</v>
+        <v>1294.486986453248</v>
       </c>
       <c r="C130">
         <v>0</v>
@@ -2610,7 +2703,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>200.6992972324136</v>
+        <v>1290.573578109482</v>
       </c>
       <c r="C131">
         <v>0</v>
@@ -2621,7 +2714,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>194.5139673218094</v>
+        <v>1266.18885734607</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -2632,7 +2725,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>193.4681322003865</v>
+        <v>1197.399337844136</v>
       </c>
       <c r="C133">
         <v>0</v>
@@ -2643,7 +2736,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>187.8223996272716</v>
+        <v>1180.943952952836</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -2654,7 +2747,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>177.4465560248723</v>
+        <v>1089.288301949655</v>
       </c>
       <c r="C135">
         <v>0</v>
@@ -2665,7 +2758,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>175.4932457817622</v>
+        <v>1089.112852843986</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -2676,7 +2769,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>173.3213330632102</v>
+        <v>1061.686888193722</v>
       </c>
       <c r="C137">
         <v>0</v>
@@ -2687,7 +2780,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>172.1061934750054</v>
+        <v>1060.535903378572</v>
       </c>
       <c r="C138">
         <v>0</v>
@@ -2698,7 +2791,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>171.2573118935039</v>
+        <v>1049.828214204636</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -2709,7 +2802,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>171.2438706740571</v>
+        <v>1043.03680495354</v>
       </c>
       <c r="C140">
         <v>0</v>
@@ -2720,7 +2813,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>171.1290631258268</v>
+        <v>975.7052526377056</v>
       </c>
       <c r="C141">
         <v>0</v>
@@ -2731,7 +2824,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>171.0715080387797</v>
+        <v>963.5921639588785</v>
       </c>
       <c r="C142">
         <v>0</v>
@@ -2742,7 +2835,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>171.0587861175205</v>
+        <v>910.1065209106939</v>
       </c>
       <c r="C143">
         <v>0</v>
@@ -2753,7 +2846,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>170.7747252652816</v>
+        <v>900.450789521416</v>
       </c>
       <c r="C144">
         <v>0</v>
@@ -2764,7 +2857,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>170.5303555975404</v>
+        <v>900.450789521416</v>
       </c>
       <c r="C145">
         <v>0</v>
@@ -2775,7 +2868,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>170.5053125605669</v>
+        <v>879.5709480586534</v>
       </c>
       <c r="C146">
         <v>0</v>
@@ -2786,7 +2879,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>170.4221750053223</v>
+        <v>864.6428667128407</v>
       </c>
       <c r="C147">
         <v>0</v>
@@ -2797,7 +2890,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>169.1528872123287</v>
+        <v>846.702734723581</v>
       </c>
       <c r="C148">
         <v>0</v>
@@ -2808,7 +2901,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>166.4334253143758</v>
+        <v>824.6160921366541</v>
       </c>
       <c r="C149">
         <v>0</v>
@@ -2819,7 +2912,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>166.1809389108109</v>
+        <v>800.5268553699188</v>
       </c>
       <c r="C150">
         <v>0</v>
@@ -2830,7 +2923,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>163.6859294052043</v>
+        <v>781.306776363258</v>
       </c>
       <c r="C151">
         <v>0</v>
@@ -2841,7 +2934,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>160.854655351324</v>
+        <v>764.3329324935984</v>
       </c>
       <c r="C152">
         <v>0</v>
@@ -2852,7 +2945,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>158.1835779131357</v>
+        <v>735.5019320737706</v>
       </c>
       <c r="C153">
         <v>0</v>
@@ -2863,7 +2956,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>153.7135737551747</v>
+        <v>732.4618538127839</v>
       </c>
       <c r="C154">
         <v>0</v>
@@ -2874,7 +2967,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>142.77775010302</v>
+        <v>708.5408813389402</v>
       </c>
       <c r="C155">
         <v>0</v>
@@ -2885,7 +2978,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>142.0679989717009</v>
+        <v>672.8511582861797</v>
       </c>
       <c r="C156">
         <v>0</v>
@@ -2896,7 +2989,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>138.3463116675607</v>
+        <v>668.6348657322224</v>
       </c>
       <c r="C157">
         <v>0</v>
@@ -2907,7 +3000,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>136.9959965692624</v>
+        <v>662.0544727751549</v>
       </c>
       <c r="C158">
         <v>0</v>
@@ -2918,7 +3011,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>136.2508489284257</v>
+        <v>608.8920761496456</v>
       </c>
       <c r="C159">
         <v>0</v>
@@ -2929,7 +3022,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>132.9356745350734</v>
+        <v>586.3130518521241</v>
       </c>
       <c r="C160">
         <v>0</v>
@@ -2940,7 +3033,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>128.0131909282173</v>
+        <v>579.9253678128398</v>
       </c>
       <c r="C161">
         <v>0</v>
@@ -2951,7 +3044,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>123.2973606082796</v>
+        <v>566.3215775691249</v>
       </c>
       <c r="C162">
         <v>0</v>
@@ -2962,7 +3055,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>121.1693493346683</v>
+        <v>544.7195923708864</v>
       </c>
       <c r="C163">
         <v>0</v>
@@ -2973,7 +3066,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>116.4956404786566</v>
+        <v>539.8562370014259</v>
       </c>
       <c r="C164">
         <v>0</v>
@@ -2984,7 +3077,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>116.3175195904763</v>
+        <v>506.7312776490674</v>
       </c>
       <c r="C165">
         <v>0</v>
@@ -2995,7 +3088,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>115.6410642009207</v>
+        <v>497.6034478845966</v>
       </c>
       <c r="C166">
         <v>0</v>
@@ -3006,7 +3099,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>115.5988465031717</v>
+        <v>497.6034478707309</v>
       </c>
       <c r="C167">
         <v>0</v>
@@ -3017,7 +3110,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>112.2050640757753</v>
+        <v>494.2168705657168</v>
       </c>
       <c r="C168">
         <v>0</v>
@@ -3028,7 +3121,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>111.0767862200799</v>
+        <v>489.7082092460586</v>
       </c>
       <c r="C169">
         <v>0</v>
@@ -3039,7 +3132,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>110.3235244757673</v>
+        <v>486.7294522207535</v>
       </c>
       <c r="C170">
         <v>0</v>
@@ -3050,7 +3143,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>107.9771334504233</v>
+        <v>476.5089891819745</v>
       </c>
       <c r="C171">
         <v>0</v>
@@ -3061,7 +3154,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>106.0240054428729</v>
+        <v>470.4947229180844</v>
       </c>
       <c r="C172">
         <v>0</v>
@@ -3072,7 +3165,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>104.2871372557736</v>
+        <v>468.6671120074552</v>
       </c>
       <c r="C173">
         <v>0</v>
@@ -3083,7 +3176,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>101.9677416114142</v>
+        <v>422.7738273873994</v>
       </c>
       <c r="C174">
         <v>0</v>
@@ -3094,7 +3187,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>96.62292303444903</v>
+        <v>413.8171587493746</v>
       </c>
       <c r="C175">
         <v>0</v>
@@ -3105,7 +3198,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>95.69975113887457</v>
+        <v>408.2045903506834</v>
       </c>
       <c r="C176">
         <v>0</v>
@@ -3116,7 +3209,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>95.44693517299083</v>
+        <v>406.0675590600078</v>
       </c>
       <c r="C177">
         <v>0</v>
@@ -3127,7 +3220,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>94.65013236337072</v>
+        <v>394.816463107686</v>
       </c>
       <c r="C178">
         <v>0</v>
@@ -3138,7 +3231,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>94.61645028652464</v>
+        <v>365.1174215239811</v>
       </c>
       <c r="C179">
         <v>0</v>
@@ -3149,7 +3242,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>91.52636608346198</v>
+        <v>358.9666545241716</v>
       </c>
       <c r="C180">
         <v>0</v>
@@ -3160,7 +3253,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>88.26955680152861</v>
+        <v>354.0158934062447</v>
       </c>
       <c r="C181">
         <v>0</v>
@@ -3171,7 +3264,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>85.9850640232282</v>
+        <v>347.2422007185505</v>
       </c>
       <c r="C182">
         <v>0</v>
@@ -3182,7 +3275,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>85.85425593174824</v>
+        <v>340.5081598404931</v>
       </c>
       <c r="C183">
         <v>0</v>
@@ -3193,7 +3286,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>85.83620467712566</v>
+        <v>336.9752336116504</v>
       </c>
       <c r="C184">
         <v>0</v>
@@ -3204,7 +3297,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>85.83355994609917</v>
+        <v>331.7899734207807</v>
       </c>
       <c r="C185">
         <v>0</v>
@@ -3215,7 +3308,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>85.8132850299183</v>
+        <v>331.1871644586004</v>
       </c>
       <c r="C186">
         <v>0</v>
@@ -3226,7 +3319,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>85.80776624577946</v>
+        <v>326.0242536672934</v>
       </c>
       <c r="C187">
         <v>0</v>
@@ -3237,7 +3330,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>85.8075075582523</v>
+        <v>317.8158522297955</v>
       </c>
       <c r="C188">
         <v>0</v>
@@ -3248,7 +3341,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>85.8068316510611</v>
+        <v>313.8486703553187</v>
       </c>
       <c r="C189">
         <v>0</v>
@@ -3259,7 +3352,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>85.78685151759851</v>
+        <v>305.1035366534252</v>
       </c>
       <c r="C190">
         <v>0</v>
@@ -3270,7 +3363,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>85.76853764343925</v>
+        <v>300.5750349680662</v>
       </c>
       <c r="C191">
         <v>0</v>
@@ -3281,7 +3374,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>85.75500516338725</v>
+        <v>300.3681707003495</v>
       </c>
       <c r="C192">
         <v>0</v>
@@ -3292,7 +3385,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>85.7440147840485</v>
+        <v>300.3046486753108</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -3303,7 +3396,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>85.73240755561986</v>
+        <v>276.4482674426023</v>
       </c>
       <c r="C194">
         <v>0</v>
@@ -3314,7 +3407,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>85.60975012296993</v>
+        <v>271.9720223416666</v>
       </c>
       <c r="C195">
         <v>0</v>
@@ -3325,7 +3418,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>85.58289903686271</v>
+        <v>268.7490901848603</v>
       </c>
       <c r="C196">
         <v>0</v>
@@ -3336,7 +3429,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>85.54735906743414</v>
+        <v>267.8089504720866</v>
       </c>
       <c r="C197">
         <v>0</v>
@@ -3347,7 +3440,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>85.38731290705348</v>
+        <v>251.1664940683507</v>
       </c>
       <c r="C198">
         <v>0</v>
@@ -3358,7 +3451,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>85.37413469416427</v>
+        <v>232.1786264894808</v>
       </c>
       <c r="C199">
         <v>0</v>
@@ -3369,7 +3462,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>85.37413469416427</v>
+        <v>230.5272888523218</v>
       </c>
       <c r="C200">
         <v>0</v>
@@ -3380,7 +3473,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>84.83822684731383</v>
+        <v>222.9453614590721</v>
       </c>
       <c r="C201">
         <v>0</v>
@@ -3391,7 +3484,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>84.63423544773545</v>
+        <v>218.0925595006566</v>
       </c>
       <c r="C202">
         <v>0</v>
@@ -3402,7 +3495,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>84.32292569764311</v>
+        <v>217.7306641157688</v>
       </c>
       <c r="C203">
         <v>0</v>
@@ -3413,7 +3506,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>80.68877063385777</v>
+        <v>215.5733750915087</v>
       </c>
       <c r="C204">
         <v>0</v>
@@ -3424,7 +3517,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>78.67105976289238</v>
+        <v>203.7558233865809</v>
       </c>
       <c r="C205">
         <v>0</v>
@@ -3435,7 +3528,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>77.29323999354698</v>
+        <v>198.2813864677772</v>
       </c>
       <c r="C206">
         <v>0</v>
@@ -3446,7 +3539,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>75.57128095941061</v>
+        <v>196.8389372226493</v>
       </c>
       <c r="C207">
         <v>0</v>
@@ -3457,7 +3550,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>66.56534836962155</v>
+        <v>194.1503895479278</v>
       </c>
       <c r="C208">
         <v>0</v>
@@ -3468,7 +3561,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>65.18007965164806</v>
+        <v>193.1479583066043</v>
       </c>
       <c r="C209">
         <v>0</v>
@@ -3479,7 +3572,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>63.85598458514969</v>
+        <v>188.659395139125</v>
       </c>
       <c r="C210">
         <v>0</v>
@@ -3490,7 +3583,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>61.40773388182411</v>
+        <v>188.5775717882408</v>
       </c>
       <c r="C211">
         <v>0</v>
@@ -3501,7 +3594,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>59.14358846669523</v>
+        <v>184.2879038152006</v>
       </c>
       <c r="C212">
         <v>0</v>
@@ -3512,7 +3605,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>58.55038495147178</v>
+        <v>181.8591132112763</v>
       </c>
       <c r="C213">
         <v>0</v>
@@ -3523,7 +3616,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>56.04716885480048</v>
+        <v>181.3263328397215</v>
       </c>
       <c r="C214">
         <v>0</v>
@@ -3534,7 +3627,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>54.08230350657082</v>
+        <v>181.2292371211734</v>
       </c>
       <c r="C215">
         <v>0</v>
@@ -3545,7 +3638,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>51.25550733446434</v>
+        <v>181.0912665995922</v>
       </c>
       <c r="C216">
         <v>0</v>
@@ -3556,7 +3649,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>48.12172221624521</v>
+        <v>180.479868254763</v>
       </c>
       <c r="C217">
         <v>0</v>
@@ -3567,7 +3660,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>46.95425479207315</v>
+        <v>180.2914374160062</v>
       </c>
       <c r="C218">
         <v>0</v>
@@ -3578,7 +3671,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>42.27186997750644</v>
+        <v>180.2127275744814</v>
       </c>
       <c r="C219">
         <v>0</v>
@@ -3589,7 +3682,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>38.65847896972666</v>
+        <v>179.9829589548912</v>
       </c>
       <c r="C220">
         <v>0</v>
@@ -3600,7 +3693,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>36.51873814698574</v>
+        <v>179.8177569830444</v>
       </c>
       <c r="C221">
         <v>0</v>
@@ -3611,10 +3704,10 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>32.03652737362749</v>
+        <v>179.74346694633</v>
       </c>
       <c r="C222">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:3">
@@ -3622,10 +3715,10 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>29.87233310012605</v>
+        <v>179.3911699915794</v>
       </c>
       <c r="C223">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -3633,10 +3726,10 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>29.04112137184868</v>
+        <v>179.0447032179874</v>
       </c>
       <c r="C224">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:3">
@@ -3644,10 +3737,10 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>29.04112137184868</v>
+        <v>178.788997751998</v>
       </c>
       <c r="C225">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:3">
@@ -3655,10 +3748,10 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>28.84984529941165</v>
+        <v>178.5528594591597</v>
       </c>
       <c r="C226">
-        <v>1e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:3">
@@ -3666,10 +3759,10 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>27.53451020193578</v>
+        <v>170.1676195608293</v>
       </c>
       <c r="C227">
-        <v>2e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:3">
@@ -3677,10 +3770,10 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>25.13133746616717</v>
+        <v>167.3691042772228</v>
       </c>
       <c r="C228">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:3">
@@ -3688,10 +3781,10 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>25.12849667404099</v>
+        <v>164.3137458781739</v>
       </c>
       <c r="C229">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:3">
@@ -3699,10 +3792,10 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>25.12536390673671</v>
+        <v>163.8761501456577</v>
       </c>
       <c r="C230">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:3">
@@ -3710,10 +3803,10 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>25.11847986165768</v>
+        <v>151.4887568005584</v>
       </c>
       <c r="C231">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:3">
@@ -3721,10 +3814,10 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>25.11706732087757</v>
+        <v>149.4172175522388</v>
       </c>
       <c r="C232">
-        <v>3e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:3">
@@ -3732,10 +3825,10 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>22.380836923135</v>
+        <v>145.6440859005576</v>
       </c>
       <c r="C233">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3743,10 +3836,10 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>22.380836923135</v>
+        <v>145.0692746922901</v>
       </c>
       <c r="C234">
-        <v>6.999999999999999e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:3">
@@ -3754,10 +3847,10 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>21.28727964454265</v>
+        <v>145.0692746922901</v>
       </c>
       <c r="C235">
-        <v>9.000000000000001e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:3">
@@ -3765,10 +3858,10 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>19.20005222775997</v>
+        <v>142.5939585141198</v>
       </c>
       <c r="C236">
-        <v>0.00017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:3">
@@ -3776,10 +3869,10 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>19.11676732091675</v>
+        <v>141.9937420824855</v>
       </c>
       <c r="C237">
-        <v>0.00018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:3">
@@ -3787,10 +3880,10 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>14.70315656895503</v>
+        <v>136.3054098603776</v>
       </c>
       <c r="C238">
-        <v>0.00072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3">
@@ -3798,10 +3891,10 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>14.69851612050643</v>
+        <v>130.5669232571601</v>
       </c>
       <c r="C239">
-        <v>0.00072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:3">
@@ -3809,10 +3902,10 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>14.69089010415048</v>
+        <v>130.2157036775732</v>
       </c>
       <c r="C240">
-        <v>0.00072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:3">
@@ -3820,10 +3913,10 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>14.68280974560293</v>
+        <v>128.8013903384072</v>
       </c>
       <c r="C241">
-        <v>0.00072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:3">
@@ -3831,10 +3924,10 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>14.62312696914323</v>
+        <v>118.9971754969246</v>
       </c>
       <c r="C242">
-        <v>0.00074</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:3">
@@ -3842,10 +3935,10 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>13.47828790081011</v>
+        <v>117.5130639540523</v>
       </c>
       <c r="C243">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3">
@@ -3853,10 +3946,10 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>12.91746054852596</v>
+        <v>115.7695287408475</v>
       </c>
       <c r="C244">
-        <v>0.00133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:3">
@@ -3864,10 +3957,10 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>12.66728743122029</v>
+        <v>115.6839747949035</v>
       </c>
       <c r="C245">
-        <v>0.00146</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:3">
@@ -3875,10 +3968,10 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>11.62019319761904</v>
+        <v>111.876041459043</v>
       </c>
       <c r="C246">
-        <v>0.00214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:3">
@@ -3886,10 +3979,10 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>11.61969481721891</v>
+        <v>110.7134381940303</v>
       </c>
       <c r="C247">
-        <v>0.00214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:3">
@@ -3897,10 +3990,10 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>11.61960300005186</v>
+        <v>110.2507079845348</v>
       </c>
       <c r="C248">
-        <v>0.00214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3">
@@ -3908,10 +4001,10 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>11.61955755093575</v>
+        <v>108.031438765941</v>
       </c>
       <c r="C249">
-        <v>0.00214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:3">
@@ -3919,10 +4012,10 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>11.61944674723773</v>
+        <v>106.0530106013483</v>
       </c>
       <c r="C250">
-        <v>0.00214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:3">
@@ -3930,10 +4023,10 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>11.61941064771303</v>
+        <v>104.3062175105019</v>
       </c>
       <c r="C251">
-        <v>0.00214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:3">
@@ -3941,10 +4034,10 @@
         <v>252</v>
       </c>
       <c r="B252">
-        <v>11.61924820155672</v>
+        <v>102.9475280626008</v>
       </c>
       <c r="C252">
-        <v>0.00214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:3">
@@ -3952,10 +4045,10 @@
         <v>253</v>
       </c>
       <c r="B253">
-        <v>11.61923352737504</v>
+        <v>102.1892589258425</v>
       </c>
       <c r="C253">
-        <v>0.00214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:3">
@@ -3963,10 +4056,10 @@
         <v>254</v>
       </c>
       <c r="B254">
-        <v>11.61898611086407</v>
+        <v>97.74191906870098</v>
       </c>
       <c r="C254">
-        <v>0.00214</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:3">
@@ -3974,10 +4067,10 @@
         <v>255</v>
       </c>
       <c r="B255">
-        <v>11.327840970806</v>
+        <v>96.26052824794519</v>
       </c>
       <c r="C255">
-        <v>0.00238</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:3">
@@ -3985,10 +4078,10 @@
         <v>256</v>
       </c>
       <c r="B256">
-        <v>9.932083531642487</v>
+        <v>95.68232011519508</v>
       </c>
       <c r="C256">
-        <v>0.00406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:3">
@@ -3996,10 +4089,10 @@
         <v>257</v>
       </c>
       <c r="B257">
-        <v>9.931058481840486</v>
+        <v>93.87282131539669</v>
       </c>
       <c r="C257">
-        <v>0.00406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:3">
@@ -4007,10 +4100,10 @@
         <v>258</v>
       </c>
       <c r="B258">
-        <v>9.928788475942502</v>
+        <v>93.80534138085048</v>
       </c>
       <c r="C258">
-        <v>0.00407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3">
@@ -4018,10 +4111,10 @@
         <v>259</v>
       </c>
       <c r="B259">
-        <v>9.928277254639868</v>
+        <v>91.45895740331974</v>
       </c>
       <c r="C259">
-        <v>0.00407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:3">
@@ -4029,10 +4122,10 @@
         <v>260</v>
       </c>
       <c r="B260">
-        <v>9.924443329330003</v>
+        <v>86.68767504007039</v>
       </c>
       <c r="C260">
-        <v>0.00407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:3">
@@ -4040,10 +4133,10 @@
         <v>261</v>
       </c>
       <c r="B261">
-        <v>9.923918769931932</v>
+        <v>85.8964836326649</v>
       </c>
       <c r="C261">
-        <v>0.00407</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:3">
@@ -4051,10 +4144,10 @@
         <v>262</v>
       </c>
       <c r="B262">
-        <v>9.921726371859831</v>
+        <v>83.11682709423496</v>
       </c>
       <c r="C262">
-        <v>0.00408</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:3">
@@ -4062,10 +4155,10 @@
         <v>263</v>
       </c>
       <c r="B263">
-        <v>9.818382553768068</v>
+        <v>81.01156311381132</v>
       </c>
       <c r="C263">
-        <v>0.00425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:3">
@@ -4073,10 +4166,10 @@
         <v>264</v>
       </c>
       <c r="B264">
-        <v>9.372251096328078</v>
+        <v>80.41807159001807</v>
       </c>
       <c r="C264">
-        <v>0.00507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:3">
@@ -4084,10 +4177,10 @@
         <v>265</v>
       </c>
       <c r="B265">
-        <v>8.921497132520924</v>
+        <v>79.04019397221546</v>
       </c>
       <c r="C265">
-        <v>0.00608</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:3">
@@ -4095,10 +4188,351 @@
         <v>266</v>
       </c>
       <c r="B266">
-        <v>8.072038064027634</v>
+        <v>79.03358734181012</v>
       </c>
       <c r="C266">
-        <v>0.008619999999999999</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B267">
+        <v>78.16554948174719</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B268">
+        <v>78.00594249991735</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B269">
+        <v>74.45593302205458</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B270">
+        <v>71.29371844211327</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B271">
+        <v>69.02935608224956</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B272">
+        <v>67.68535411871689</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B273">
+        <v>67.24092255929993</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B274">
+        <v>64.25641272968883</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B275">
+        <v>63.64396166546599</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B276">
+        <v>59.00671199380118</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B277">
+        <v>55.34494620357992</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B278">
+        <v>54.76489744559583</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B279">
+        <v>53.84048151529569</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B280">
+        <v>53.6003557366369</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B281">
+        <v>52.24075419048231</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B282">
+        <v>50.90306905113896</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283">
+        <v>46.16869468928453</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B284">
+        <v>36.67875090661363</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B285">
+        <v>33.58816525367694</v>
+      </c>
+      <c r="C285">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B286">
+        <v>33.58816525367694</v>
+      </c>
+      <c r="C286">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B287">
+        <v>31.0703220484336</v>
+      </c>
+      <c r="C287">
+        <v>1e-05</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B288">
+        <v>27.92077248988681</v>
+      </c>
+      <c r="C288">
+        <v>2e-05</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B289">
+        <v>25.23564678304032</v>
+      </c>
+      <c r="C289">
+        <v>4e-05</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B290">
+        <v>19.31168629763763</v>
+      </c>
+      <c r="C290">
+        <v>0.00019</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B291">
+        <v>16.2520727538523</v>
+      </c>
+      <c r="C291">
+        <v>0.00049</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B292">
+        <v>15.93456734722658</v>
+      </c>
+      <c r="C292">
+        <v>0.00054</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B293">
+        <v>14.04836960191711</v>
+      </c>
+      <c r="C293">
+        <v>0.00099</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B294">
+        <v>13.89809842360891</v>
+      </c>
+      <c r="C294">
+        <v>0.00104</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B295">
+        <v>11.0496063207939</v>
+      </c>
+      <c r="C295">
+        <v>0.00284</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B296">
+        <v>11.04514900381039</v>
+      </c>
+      <c r="C296">
+        <v>0.00284</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B297">
+        <v>8.62923861680591</v>
+      </c>
+      <c r="C297">
+        <v>0.00719</v>
       </c>
     </row>
   </sheetData>
